--- a/biology/Zoologie/Choucador_de_Kenrick/Choucador_de_Kenrick.xlsx
+++ b/biology/Zoologie/Choucador_de_Kenrick/Choucador_de_Kenrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poeoptera kenricki
 Le Choucador de Kenrick (Poeoptera kenricki) est une espèce d'oiseaux de la famille des Sturnidae. Cet oiseau vit au Kenya et en Tanzanie.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Poeoptera kenricki a été décrite pour la première fois en 1894 par l'ornithologue anglais George Ernest Shelley (1840-1910)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Poeoptera kenricki a été décrite pour la première fois en 1894 par l'ornithologue anglais George Ernest Shelley (1840-1910).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Poeoptera kenricki bensoni (Van Someren, 1945)
 sous-espèce Poeoptera kenricki kenricki Shelley, 1894</t>
         </is>
